--- a/doc/環境構築ガイド.xlsx
+++ b/doc/環境構築ガイド.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="21576" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Java8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総合開発環境</t>
     <rPh sb="0" eb="4">
       <t>ソウゴウカイハツ</t>
@@ -280,6 +276,10 @@
   </si>
   <si>
     <t>ターゲットはいまのところjavaccのみ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java8(JDK8),JRuby1.7.12</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1161,47 +1161,48 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1211,39 +1212,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1261,46 +1262,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1316,21 +1317,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1346,31 +1347,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
